--- a/2021-06 NT Outbreak Paths.xlsx
+++ b/2021-06 NT Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F7A12E-D89E-4359-AA19-A6A34B3BB208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AF9058-91EC-4982-BE86-E141134D7AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
   <si>
     <t>Source</t>
   </si>
@@ -160,18 +160,6 @@
     <t>Granites Gold Mine</t>
   </si>
   <si>
-    <t>#ffe7de</t>
-  </si>
-  <si>
-    <t>#fdcfbd</t>
-  </si>
-  <si>
-    <t>#f9b89d</t>
-  </si>
-  <si>
-    <t>#f3a07e</t>
-  </si>
-  <si>
     <t>#eb895f</t>
   </si>
   <si>
@@ -221,6 +209,24 @@
   </si>
   <si>
     <t>S4 child</t>
+  </si>
+  <si>
+    <t>#ffebe3</t>
+  </si>
+  <si>
+    <t>#fed7c8</t>
+  </si>
+  <si>
+    <t>#fbc4ad</t>
+  </si>
+  <si>
+    <t>#f7b092</t>
+  </si>
+  <si>
+    <t>#f29d78</t>
+  </si>
+  <si>
+    <t>N8</t>
   </si>
 </sst>
 </file>
@@ -290,8 +296,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G16" totalsRowShown="0">
-  <autoFilter ref="A1:G16" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G17" totalsRowShown="0">
+  <autoFilter ref="A1:G17" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -615,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -658,10 +664,10 @@
         <v>44373</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -675,10 +681,10 @@
         <v>44374</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -695,10 +701,10 @@
         <v>44374</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -715,10 +721,10 @@
         <v>44374</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -735,10 +741,10 @@
         <v>44375</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -755,10 +761,10 @@
         <v>44375</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -775,10 +781,10 @@
         <v>44375</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -795,10 +801,10 @@
         <v>44376</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -815,10 +821,10 @@
         <v>44376</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -835,10 +841,10 @@
         <v>44376</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -855,13 +861,13 @@
         <v>44377</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
@@ -875,13 +881,13 @@
         <v>44377</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -895,13 +901,13 @@
         <v>44377</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -915,13 +921,13 @@
         <v>44377</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -935,18 +941,38 @@
         <v>44377</v>
       </c>
       <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
       </c>
       <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -962,10 +988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -974,7 +1000,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -988,12 +1014,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44373</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1001,28 +1027,13 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44374</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1031,12 +1042,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44375</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1045,12 +1056,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44376</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1059,12 +1070,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44377</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1073,105 +1084,114 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44378</v>
       </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44379</v>
       </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44380</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44381</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44382</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44383</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44384</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44385</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44386</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44387</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -1182,7 +1202,7 @@
         <v>44388</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
@@ -1193,7 +1213,7 @@
         <v>44389</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -1204,7 +1224,7 @@
         <v>44390</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
@@ -1215,7 +1235,7 @@
         <v>44391</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
@@ -1226,7 +1246,7 @@
         <v>44392</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -1237,7 +1257,7 @@
         <v>44393</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
@@ -1247,9 +1267,6 @@
       <c r="A23" s="1">
         <v>44394</v>
       </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
       <c r="D23" t="s">
         <v>32</v>
       </c>
@@ -1257,9 +1274,6 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44395</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>

--- a/2021-06 NT Outbreak Paths.xlsx
+++ b/2021-06 NT Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AF9058-91EC-4982-BE86-E141134D7AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AC35B9-3853-444E-937B-75565CF38F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="68">
   <si>
     <t>Source</t>
   </si>
@@ -211,22 +211,34 @@
     <t>S4 child</t>
   </si>
   <si>
-    <t>#ffebe3</t>
-  </si>
-  <si>
-    <t>#fed7c8</t>
-  </si>
-  <si>
-    <t>#fbc4ad</t>
-  </si>
-  <si>
-    <t>#f7b092</t>
-  </si>
-  <si>
-    <t>#f29d78</t>
-  </si>
-  <si>
     <t>N8</t>
+  </si>
+  <si>
+    <t>Isolated</t>
+  </si>
+  <si>
+    <t>Not isolated</t>
+  </si>
+  <si>
+    <t>#ffeee7</t>
+  </si>
+  <si>
+    <t>#ffddcf</t>
+  </si>
+  <si>
+    <t>#fdccb8</t>
+  </si>
+  <si>
+    <t>#fabba1</t>
+  </si>
+  <si>
+    <t>#f6ab8b</t>
+  </si>
+  <si>
+    <t>#f19a75</t>
+  </si>
+  <si>
+    <t>S6 child</t>
   </si>
 </sst>
 </file>
@@ -296,9 +308,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G17" totalsRowShown="0">
-  <autoFilter ref="A1:G17" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H18" totalsRowShown="0">
+  <autoFilter ref="A1:H18" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
     <tableColumn id="3" xr3:uid="{1A404655-FE9B-4B0A-80BF-03F432FB739E}" name="Target"/>
@@ -306,6 +318,7 @@
     <tableColumn id="5" xr3:uid="{5A5064EE-FA20-4C72-A1EA-5267C1288E45}" name="Sub-Cluster"/>
     <tableColumn id="6" xr3:uid="{3B657D6E-5072-40F9-AE8E-5668421641DE}" name="Link Label"/>
     <tableColumn id="11" xr3:uid="{8662E1B9-B1C5-4B63-8E8E-4BEEF60CF32F}" name="Variant"/>
+    <tableColumn id="7" xr3:uid="{5B2DAE33-3394-40AB-BA50-EBE65760267C}" name="Isolated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -621,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -634,9 +647,10 @@
     <col min="5" max="5" width="3.796875" customWidth="1"/>
     <col min="6" max="6" width="16.3984375" customWidth="1"/>
     <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -658,8 +672,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44373</v>
       </c>
@@ -675,8 +692,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44374</v>
       </c>
@@ -695,8 +715,11 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44374</v>
       </c>
@@ -715,8 +738,11 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44374</v>
       </c>
@@ -735,8 +761,11 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44375</v>
       </c>
@@ -755,8 +784,11 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44375</v>
       </c>
@@ -775,8 +807,11 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44375</v>
       </c>
@@ -795,8 +830,11 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44376</v>
       </c>
@@ -815,8 +853,11 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44376</v>
       </c>
@@ -835,8 +876,11 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44376</v>
       </c>
@@ -855,8 +899,11 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44377</v>
       </c>
@@ -875,8 +922,11 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44377</v>
       </c>
@@ -895,8 +945,11 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44377</v>
       </c>
@@ -915,8 +968,11 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44377</v>
       </c>
@@ -935,8 +991,11 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44377</v>
       </c>
@@ -955,8 +1014,11 @@
       <c r="G16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44378</v>
       </c>
@@ -964,7 +1026,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
@@ -974,6 +1036,32 @@
       </c>
       <c r="G17" t="s">
         <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -990,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1019,7 +1107,7 @@
         <v>44373</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1033,7 +1121,7 @@
         <v>44374</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1047,7 +1135,7 @@
         <v>44375</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1061,7 +1149,7 @@
         <v>44376</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1075,7 +1163,7 @@
         <v>44377</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1089,7 +1177,7 @@
         <v>44378</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1101,6 +1189,9 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44379</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
